--- a/Models/BioLUC-CRAFTY-2000/Data/BioLUCScenarios.xlsx
+++ b/Models/BioLUC-CRAFTY-2000/Data/BioLUCScenarios.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\GitHub\CRAFTY-BioLuc\Models\BioLUC-CRAFTY-2000\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\millington\2020-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19231C6F-0339-4980-8F77-6B489337A91F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A340E87-A02E-4D01-A201-73939F9E8127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="1395" windowWidth="24765" windowHeight="13485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToStella" sheetId="1" r:id="rId1"/>
+    <sheet name="Baseline" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
     <author>Steve Peterson</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{D65BF5D5-B715-4788-A298-839CD9F2D1AB}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7C56FB9F-B0A0-4165-ADF3-E3B1B2EDECCD}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -53,14 +54,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Set this to 1 to activate connection from BioLUC to CRAFTY. Set to 0 to run Bioluc Brazil module</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{FD3205E7-37B0-4DF6-87C0-15E0EC3B2152}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{33A4DF32-34F3-4479-BD1F-F999FBCFA789}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -77,14 +78,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 index of responsiveness in Brazil to global shortfall of Maize.  Higher values incicate higher responiveness within Brazil</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{6C56AC94-91E1-41C1-B851-09A937BBD0A6}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{DAB975EE-2B2E-49B2-800A-6D9786B8748F}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -101,14 +102,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 index of responsiveness in Brazil to global shortfall of Soy  Higher values incicate higher responiveness within Brazil</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{27C10743-7379-4D19-984C-D705B036C906}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{632ADA47-DEE5-4611-826F-A0B4D031A0F0}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -125,14 +126,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 index of responsiveness in Brazil to global shortfall of Beef.  Higher values incicate higher responiveness within Brazil</t>
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{AA65400F-9D22-4DA5-85F4-6FEA78B9D7B5}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{39693C46-9C44-47E9-ADA9-B871F39A3C11}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -149,14 +150,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 % deviation from yield trend, by year</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{38287FC8-6546-4198-82E6-4687A246B239}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{D7449C21-B7AE-4906-858B-B9CD4A0E980E}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -173,14 +174,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 % deviation from yield trend, by year</t>
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{4542282E-8AA9-4C22-B20E-7AA0DA7457BC}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{6A61AEB8-3AD4-49C6-AA59-EE093BFD7AE6}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -197,14 +198,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 % deviation from yield trend, by year</t>
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{0C9BCED2-ED43-4FEB-93F2-E85C207A3E5D}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{15E21A1A-E8FC-427F-875B-6E69EB7B45A6}">
       <text>
         <r>
           <rPr>
@@ -212,7 +213,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -221,14 +222,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 % deviation from yield trend, by year</t>
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{1B559E70-A35C-485C-B9F1-77924EBCC053}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{6293E722-FD13-4773-B655-DCD73F02CD93}">
       <text>
         <r>
           <rPr>
@@ -248,11 +249,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-test note</t>
+(beef/dairy/pork/chicken) Switch for China diet transition
+Set to fractional value to capture portion of gap between traditional and western diet that is realized over ~3 transition times</t>
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{704652FD-46A9-4492-B794-D1DA791BF043}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{E3C68243-16A5-4A28-A1FB-5CC94F732B72}">
       <text>
         <r>
           <rPr>
@@ -260,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -269,14 +271,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-time to begin transition in China toward Western Diet </t>
+default was 0.  Set to 0.5 to increase beef portion of diet to 50% of western value</t>
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{1B5FA1A1-F9AD-4762-9537-D2DA1FC4C0F1}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{06B50403-146B-444E-AFDC-185AC2EEEB0D}">
       <text>
         <r>
           <rPr>
@@ -284,7 +286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Peterson:</t>
         </r>
@@ -293,14 +295,41 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-exponential averaging time for making transition from china diet trend to western diet trajectory</t>
+time to begin transition in China toward Western Diet 
+Default is 2020.
+Set to 2010 to initiate movement from traditional to western diet in 2010</t>
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{2E9166B3-99C0-40B3-B7C6-645EF2C62965}">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{12CCE4D4-E876-43E4-A1AB-796935001AC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+exponential averaging time for making transition from china diet trend to western diet trajectory
+95% of gap between US and China is eliminated in ~3x transition times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{F0F4418F-4437-4D83-8F72-D9E956BB8984}">
       <text>
         <r>
           <rPr>
@@ -324,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{F1A64087-0769-4A65-8EB4-8274B1F0FE12}">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{212176CE-97C4-4599-9139-5DB42F329393}">
       <text>
         <r>
           <rPr>
@@ -348,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{FB008054-18EE-4175-B037-ADF6115AAF21}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{9F317545-BD7C-4CA7-9DC7-4E6887B8D90A}">
       <text>
         <r>
           <rPr>
@@ -372,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{C5AC1108-3C90-4F9E-893B-7A5079D9E6D5}">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{A27D3B8A-CE42-44E0-AF4E-1B879916CE7F}">
       <text>
         <r>
           <rPr>
@@ -401,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Global.BRA_Maize_Responsiveness</t>
   </si>
@@ -455,26 +484,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -497,8 +513,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -536,11 +565,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,19 +852,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D9F6D-FD33-4AB2-9981-3A5DBF23E69E}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.26171875" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -927,15 +1073,15 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1030,102 +1176,102 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.60899999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1366,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1600,32 +1746,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
+      <c r="B19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
-        <v>2020</v>
+      <c r="B21" s="6">
+        <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>

--- a/Models/BioLUC-CRAFTY-2000/Data/BioLUCScenarios.xlsx
+++ b/Models/BioLUC-CRAFTY-2000/Data/BioLUCScenarios.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\millington\2020-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\GitHub\CRAFTY-BioLuc\Models\BioLUC-CRAFTY-2000\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A340E87-A02E-4D01-A201-73939F9E8127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D89A08-A575-41A5-B9EC-ADAB36A32D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="1395" windowWidth="24765" windowHeight="13485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="690" windowWidth="24765" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToStella" sheetId="1" r:id="rId1"/>
     <sheet name="Baseline" sheetId="2" r:id="rId2"/>
+    <sheet name="PermChangeAPImports" sheetId="3" r:id="rId3"/>
+    <sheet name="TempChangeAPImports" sheetId="4" r:id="rId4"/>
+    <sheet name="APDemandChg" sheetId="5" r:id="rId5"/>
+    <sheet name="CPYieldChg" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +41,40 @@
     <author>Steve Peterson</author>
   </authors>
   <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{05591E52-D1A5-40F7-B567-209D21CF95E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Set this to 1 to activate connection from BioLUC to CRAFTY. Set to 0 to run Bioluc Brazil module</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steve Peterson</author>
+  </authors>
+  <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7C56FB9F-B0A0-4165-ADF3-E3B1B2EDECCD}">
       <text>
         <r>
@@ -329,7 +367,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{F0F4418F-4437-4D83-8F72-D9E956BB8984}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{3B803102-BA94-480B-8F78-4D1D538858EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function that sets ramp in of AP demand change
+Set ramp-in ranges from 0 to 1 over period 2020-2030</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{F0F4418F-4437-4D83-8F72-D9E956BB8984}">
       <text>
         <r>
           <rPr>
@@ -353,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{212176CE-97C4-4599-9139-5DB42F329393}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{212176CE-97C4-4599-9139-5DB42F329393}">
       <text>
         <r>
           <rPr>
@@ -377,7 +440,80 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{9F317545-BD7C-4CA7-9DC7-4E6887B8D90A}">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{46412E2D-57D6-412B-9B98-78A095F73D1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function that sets ramp in CP yield change
+set to 1 for year(s) in which yield change is active over 2020-2030. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{9C21B993-6F02-4BB3-9D8B-1B256919781C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline yield trajectory for commodity products in this region</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{A9BCC558-64CC-4109-A52F-2DC95A80453E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline yield trajectory for commodity products in this region</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{5C185038-81F8-4987-843C-C63EFD63AAB3}">
       <text>
         <r>
           <rPr>
@@ -401,27 +537,601 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{A27D3B8A-CE42-44E0-AF4E-1B879916CE7F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Steve Peterson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction of animal product (beef/dairy/pork/chicken) that is imported vs produced domestically</t>
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{9F317545-BD7C-4CA7-9DC7-4E6887B8D90A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline diet trajectory for animal products</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{A27D3B8A-CE42-44E0-AF4E-1B879916CE7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction of animal product (beef/dairy/pork/chicken) potential import demand that is desired to be imported vs produced domestically
+2020-08-06. old values are 0.2/0/0.02/0.1  Changed in model to
+0.3/0/0.5/0.1 in context of implementing Jem scenarios</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{CB2E4E1B-AC4B-4794-B526-30FFC61CA10B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+switch to activate change in import profile for China. 1 means active. 0 means default values for BaseAPImportFraction</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steve Peterson</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{85841668-3542-4456-B367-8D2B53A5C639}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Set this to 1 to activate connection from BioLUC to CRAFTY. Set to 0 to run Bioluc Brazil module</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{15C1735F-8F68-4F21-990B-20C59FFB4EED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+switch to activate change in import profile for China. 1 means active. 0 means default values for BaseAPImportFraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{66126331-5C7F-4DB2-86B7-AB8F80AA4C6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+start time for change in import profile for China. Default is 2017. Import switch must be set to 1 for scenario to take effect.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{326E22D0-926C-4F64-8EAD-3EC7B484D5A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+start time for change in import profile for China. Value of 2050 holds scenario in place to end of simulation. Import switch must be set to 1 for scenario to take effect.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{DDA69CFB-002F-4834-AD99-444D6797867A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Additional fraction of animal product (beef/dairy/pork/chicken) import demand that is imported vs produced domestically
+Given default values for BaseAPImportFraction, values here should not be greater than 0.7/1/0.5/0.9</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steve Peterson</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AE2B8608-8F86-48C5-9A33-7AF9E2B3D5D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Set this to 1 to activate connection from BioLUC to CRAFTY. Set to 0 to run Bioluc Brazil module</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2F60550E-8E69-4788-AD39-5A06C4FDB6B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+switch to activate change in import profile for China. 1 means active. 0 means default values for BaseAPImportFraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{F0A3D2A7-0BF8-415B-B314-7692A90A7130}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+start time for change in import profile for China. Default is 2017. Import switch must be set to 1 for scenario to take effect.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{30E8604B-2128-47AD-A98A-3F22FB446A13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+start time for change in import profile for China. Value of 2050 holds scenario in place to end of simulation. Import switch must be set to 1 for scenario to take effect.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B22F2D01-75D8-4982-BF6F-DAF43ED36ADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Additional fraction of animal product (beef/dairy/pork/chicken) import demand that is imported vs produced domestically
+Given default values for BaseAPImportFraction, values here should not be greater than 0.7/1/0.5/0.9</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steve Peterson</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{753F6B85-B8A6-4F01-9C79-E9E7275E34CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Set this to 1 to activate connection from BioLUC to CRAFTY. Set to 0 to run Bioluc Brazil module</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{E392B96E-6D82-4736-BF91-D1672492B40E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function that sets ramp in of AP demand change
+Set ramp-in ranges from 0 to 1 over period 2020-2030</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{18784269-CCB0-4E82-940C-9A22F620E57F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline diet trajectory for animal products</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{4FCA4B3F-3235-442A-A87C-53F1A2535553}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline diet trajectory for animal products</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{021EBA60-E9CE-4F5D-BB76-EEF19051726B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline diet trajectory for animal products</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steve Peterson</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{097CA6B6-EE25-458D-9C37-6F2FE344FF33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Set this to 1 to activate connection from BioLUC to CRAFTY. Set to 0 to run Bioluc Brazil module</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{23D55E0A-2BAE-49AE-9368-6383D873010A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function that sets ramp in CP yield change
+set to 1 for year(s) in which yield change is active over 2020-2030. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{B1125820-8396-4F4D-A4B7-8F87ACEFC4B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline yield trajectory for commodity products in this region</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{52B932E0-D4F2-483E-8462-FBCF48F1B594}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline yield trajectory for commodity products in this region</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{45DD5214-C8BC-44DD-AE7D-CE489202C00D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage deviation from baseline diet trajectory for animal products</t>
         </r>
       </text>
     </comment>
@@ -430,7 +1140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Global.BRA_Maize_Responsiveness</t>
   </si>
@@ -477,7 +1187,34 @@
     <t>Global.Crafty active</t>
   </si>
   <si>
-    <t>CHIHKG.APImportFraction[AnimalProduct]</t>
+    <t>CHIHKG.ChangeAPImportSwitch</t>
+  </si>
+  <si>
+    <t>CHIHKG.ChangeAPImportStart</t>
+  </si>
+  <si>
+    <t>CHIHKG.ChangeAPImportStop</t>
+  </si>
+  <si>
+    <t>CHIHKG.BaseAPImportFraction[AnimalProduct]</t>
+  </si>
+  <si>
+    <t>CHIHKG.APImportFractionChgAMT[AnimalProduct]</t>
+  </si>
+  <si>
+    <t>Global.AP demand ramp in logic</t>
+  </si>
+  <si>
+    <t>Global.CP yield ramp in logic</t>
+  </si>
+  <si>
+    <t>Global.CP yield mod pct[USA 1]</t>
+  </si>
+  <si>
+    <t>Global.CP yield mod pct[EU27 1]</t>
+  </si>
+  <si>
+    <t>Global.CP yield mod pct[CHIHKG 1]</t>
   </si>
 </sst>
 </file>
@@ -852,11 +1589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,18 +1696,27 @@
         <v>2030</v>
       </c>
     </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D9F6D-FD33-4AB2-9981-3A5DBF23E69E}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,23 +2529,54 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1807,19 +2584,97 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0.3</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B31">
-        <v>0.2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0.02</v>
-      </c>
-      <c r="E31">
-        <v>0.1</v>
+      <c r="B43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1827,4 +2682,699 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2709315B-5C30-4B3C-9545-8F54E4310640}">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B1A9-441C-4109-AD90-5F41692BEED0}">
+  <dimension ref="A1:AE10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E65D51-C03E-4665-A7FC-EF97F7DF7B4C}">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C4F16-A92E-424A-9A6E-F7F767AA8C5E}">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>